--- a/data/hotels_by_city/Denver/Denver_shard_191.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_191.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d12295260-Reviews-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-MainStay-Suites-Near-Denver-Downtown.h17948096.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,458 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r583158711-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12295260</t>
+  </si>
+  <si>
+    <t>583158711</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Not the cleanest</t>
+  </si>
+  <si>
+    <t>The room was cleaned once in 5 days.  Housekeeping was impossible to find. Had to go to front desk to get more toilet paper.  Free wifi kept dropping in and out.  The hosted snacks in the evening were pretty bad, and same could be said for the breakfast in the morning.  Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>The room was cleaned once in 5 days.  Housekeeping was impossible to find. Had to go to front desk to get more toilet paper.  Free wifi kept dropping in and out.  The hosted snacks in the evening were pretty bad, and same could be said for the breakfast in the morning.  Will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r580417256-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>580417256</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Amazing Place</t>
+  </si>
+  <si>
+    <t>I went to the Mainstays in Denver to visit my brother who is ill, on arrival I was concerned about the area but once I got in my worries went away. I was greeted by don and Marcus who went above and beyond to make me feel welcome. Great management!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I went to the Mainstays in Denver to visit my brother who is ill, on arrival I was concerned about the area but once I got in my worries went away. I was greeted by don and Marcus who went above and beyond to make me feel welcome. Great management!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r569742521-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>569742521</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>This hotel has gone down fast. We were here about 7 months ago&amp; it was much better. Where should I start? Rooms: dark, muggy and a suite is not actually a suite at all.Food: Breakfast: awful. Dinner: would skip it.Swimming pool: cleaning staff bring their family daily → crowded &amp; smallStaff( manager Marcus Ross and some lady at the front desk): very unprofessional &amp; impolite. Marcus was french Kissing the lady and I caught them by surprise. She told us We were only allowed One snack for our whole family. She said they have No towels. They threatened to charge us for another night at 1130 Am! When I complained to Marcus about how staff should be polite, he said if we were not out in 5 minutes he would call the police. I am a doctor for God's sake and he is threatening to call the cops on me... for what exactly? His cowardly insecurity and favoritism for the lady he sleeps with at the front desk? Needless to say, they have lost the service of this elite member. For $160 this was one bad night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel has gone down fast. We were here about 7 months ago&amp; it was much better. Where should I start? Rooms: dark, muggy and a suite is not actually a suite at all.Food: Breakfast: awful. Dinner: would skip it.Swimming pool: cleaning staff bring their family daily → crowded &amp; smallStaff( manager Marcus Ross and some lady at the front desk): very unprofessional &amp; impolite. Marcus was french Kissing the lady and I caught them by surprise. She told us We were only allowed One snack for our whole family. She said they have No towels. They threatened to charge us for another night at 1130 Am! When I complained to Marcus about how staff should be polite, he said if we were not out in 5 minutes he would call the police. I am a doctor for God's sake and he is threatening to call the cops on me... for what exactly? His cowardly insecurity and favoritism for the lady he sleeps with at the front desk? Needless to say, they have lost the service of this elite member. For $160 this was one bad night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r559136596-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>559136596</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel</t>
+  </si>
+  <si>
+    <t>Clean rooms, wonderful breakfast, a huge thank you to mariah she was friendly and vary helpful. Vary convenient location to the light rails and buses next time i am in town this is were i will be staying!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Clean rooms, wonderful breakfast, a huge thank you to mariah she was friendly and vary helpful. Vary convenient location to the light rails and buses next time i am in town this is were i will be staying!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r551499585-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>551499585</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for the Broncos game on New Year's Eve.  We were about maybe 2 miles from the stadium but we opted to an Uber instead of walking as it was very cold out.  Our stay here was great.  The room was very clean and neat.  The bed was so comfortable and the pillows were awesome.  Chelsea, who worked the front desk, greeted us and she was very helpful and kind.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Comfort S, Supervisor at Mainstay Suites, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for the Broncos game on New Year's Eve.  We were about maybe 2 miles from the stadium but we opted to an Uber instead of walking as it was very cold out.  Our stay here was great.  The room was very clean and neat.  The bed was so comfortable and the pillows were awesome.  Chelsea, who worked the front desk, greeted us and she was very helpful and kind.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r536754612-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>536754612</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Awful location</t>
+  </si>
+  <si>
+    <t>Yes the hotel is OK and a new hotel but it's located in the middle of nowhere. You have to pass a few highways just to get somewhere. Don't even bother if u want to see a bit of the city or u have only a few days !!!Everything else was just OK but nothing special. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Yes the hotel is OK and a new hotel but it's located in the middle of nowhere. You have to pass a few highways just to get somewhere. Don't even bother if u want to see a bit of the city or u have only a few days !!!Everything else was just OK but nothing special. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r532633800-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532633800</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel Near Downtown Denver.</t>
+  </si>
+  <si>
+    <t>Was in Denver for a Aunt’s 70th Birthday. So we all stayed at Mainstay / Comfort Inn Suites. The location was great. The rooms where nice and comfortable. The breakfast in the morning was good and simple. We all had a nice stay and visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Was in Denver for a Aunt’s 70th Birthday. So we all stayed at Mainstay / Comfort Inn Suites. The location was great. The rooms where nice and comfortable. The breakfast in the morning was good and simple. We all had a nice stay and visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r529546920-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>529546920</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel, Great Location, Fabulous Staff</t>
+  </si>
+  <si>
+    <t>This was our first visit to this hotel, but will not be our last. Everything was excellent from check-in to check-out! We spent four nights there while visiting the area along with some friends. Close to everything from Bronco Stadium to downtown to Red Rocks. Rooms were very clean, quiet and comfortable! We have been Choice Hotels members for many years and have traveled coast to coast as well as throughout Mexico. This hotel ranks near the top in all our visits. Thank You!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This was our first visit to this hotel, but will not be our last. Everything was excellent from check-in to check-out! We spent four nights there while visiting the area along with some friends. Close to everything from Bronco Stadium to downtown to Red Rocks. Rooms were very clean, quiet and comfortable! We have been Choice Hotels members for many years and have traveled coast to coast as well as throughout Mexico. This hotel ranks near the top in all our visits. Thank You!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r529286495-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>529286495</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would not recommend </t>
+  </si>
+  <si>
+    <t>I was here for five nights. When I arrived in the room there was an ironing board on top of the bed. The room had not been mopped or vacuumed. I requested another room but was told the hotel was full. It was only after I requested that the room be cleaned that another room was located. This room did not appear to have been vacuumed too and it smelled. Staff was not friendly or helpful. Would not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I was here for five nights. When I arrived in the room there was an ironing board on top of the bed. The room had not been mopped or vacuumed. I requested another room but was told the hotel was full. It was only after I requested that the room be cleaned that another room was located. This room did not appear to have been vacuumed too and it smelled. Staff was not friendly or helpful. Would not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r524340951-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524340951</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Did Not Meet Expectations</t>
+  </si>
+  <si>
+    <t>Stayed here because we couldn't find anything downtown available. There is no where around the hotel to eat. The area does not feel safe or inviting so we had to take a cab each time we wanted to grab some food. The hotel and area in general is also very loud. There is a bus depot next door and by 5:30am they are firing up the buses and apparently part of that is testing the horns on each bus. The rooms themselves were ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here because we couldn't find anything downtown available. There is no where around the hotel to eat. The area does not feel safe or inviting so we had to take a cab each time we wanted to grab some food. The hotel and area in general is also very loud. There is a bus depot next door and by 5:30am they are firing up the buses and apparently part of that is testing the horns on each bus. The rooms themselves were ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r514264683-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>514264683</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Very happy with this hotel</t>
+  </si>
+  <si>
+    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness✅ , bed ✅, washroom ✅, breakfast ✅ Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on ☺MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded August 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2017</t>
+  </si>
+  <si>
+    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness✅ , bed ✅, washroom ✅, breakfast ✅ Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on ☺More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r513484040-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>513484040</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>One word... "meh..."</t>
+  </si>
+  <si>
+    <t>First off, here is the good about this hotel: it is brand new, like only three months old. That said, I am shocked that a three-month-old hotel is not in better shape. I'm talking staffing, aesthetically, and the physical facilities. I'm trying to put this in perspective, it's like if you had built a brand new home and used all the cheapest materials possible and did absolutely no upgrades and it was slightly unfinished and you just called it good. 
+Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area,...First off, here is the good about this hotel: it is brand new, like only three months old. That said, I am shocked that a three-month-old hotel is not in better shape. I'm talking staffing, aesthetically, and the physical facilities. I'm trying to put this in perspective, it's like if you had built a brand new home and used all the cheapest materials possible and did absolutely no upgrades and it was slightly unfinished and you just called it good. Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area, like no paint on the walls or doorways... but anyway, there were no towels I had to ask for more. She told me there wouldn't be any for the rest of the night. I asked if there was anyway she could make an exception and she just said "yes" begrudgingly and about 15 minutes later she brought a couple towels into the pool area. Overall, just a very unfriendly and off putting hotel staff.Physical facilities-so here are a few things that I noticed just in our own room. We could not use the drain plug in the tub to stop the tub so we could have our kids take a bath I had to plug it up with something else. The safety lock on the door was not attached correctly and was falling off. The corner protector on wall in our room fell off multiple times when I went to stick it back on the wall it was apparent that they had put duct tape behind it to hold it in place and there was many spaces where they had to use the hot glue gun to try it and get it to stay. Just doesn't seem professional, quite shoddy actually. One of our rooms stunk and just felt muggy the entire time. I understand that this is not a high-end hotel, but for a brand new hotel I wouldn't expect to feel as if I was in a older hotel under renovation with poor staffing. Finally, breakfast is nothing to write home about and to top everything all off there was no hot tub:(MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>First off, here is the good about this hotel: it is brand new, like only three months old. That said, I am shocked that a three-month-old hotel is not in better shape. I'm talking staffing, aesthetically, and the physical facilities. I'm trying to put this in perspective, it's like if you had built a brand new home and used all the cheapest materials possible and did absolutely no upgrades and it was slightly unfinished and you just called it good. 
+Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area,...First off, here is the good about this hotel: it is brand new, like only three months old. That said, I am shocked that a three-month-old hotel is not in better shape. I'm talking staffing, aesthetically, and the physical facilities. I'm trying to put this in perspective, it's like if you had built a brand new home and used all the cheapest materials possible and did absolutely no upgrades and it was slightly unfinished and you just called it good. Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area, like no paint on the walls or doorways... but anyway, there were no towels I had to ask for more. She told me there wouldn't be any for the rest of the night. I asked if there was anyway she could make an exception and she just said "yes" begrudgingly and about 15 minutes later she brought a couple towels into the pool area. Overall, just a very unfriendly and off putting hotel staff.Physical facilities-so here are a few things that I noticed just in our own room. We could not use the drain plug in the tub to stop the tub so we could have our kids take a bath I had to plug it up with something else. The safety lock on the door was not attached correctly and was falling off. The corner protector on wall in our room fell off multiple times when I went to stick it back on the wall it was apparent that they had put duct tape behind it to hold it in place and there was many spaces where they had to use the hot glue gun to try it and get it to stay. Just doesn't seem professional, quite shoddy actually. One of our rooms stunk and just felt muggy the entire time. I understand that this is not a high-end hotel, but for a brand new hotel I wouldn't expect to feel as if I was in a older hotel under renovation with poor staffing. Finally, breakfast is nothing to write home about and to top everything all off there was no hot tub:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r504624421-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>504624421</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business trip to Denver </t>
+  </si>
+  <si>
+    <t>Came out here to Denver to work for a month or so and found this hotel and really liked it. It is always clean all around in the lobby and rooms as well. The staff was awesome as well. Isabel at the front desk did an amazing job helping me with any problem I had and also gave good food recommendations for around town. Also Cheryl at the front desk was very helpful with making sure I was comfortable in the hotel. Would stay here again coming back to Denver and it was affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Came out here to Denver to work for a month or so and found this hotel and really liked it. It is always clean all around in the lobby and rooms as well. The staff was awesome as well. Isabel at the front desk did an amazing job helping me with any problem I had and also gave good food recommendations for around town. Also Cheryl at the front desk was very helpful with making sure I was comfortable in the hotel. Would stay here again coming back to Denver and it was affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r491860777-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>491860777</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Very happy!</t>
+  </si>
+  <si>
+    <t>Great Location. Close to downtown and Lodo.Very smooth and quick check in.Very clean. New Hotel, but still and very clean one.Great FULL breakfast.And the desk staff named Elizabeth was AWESOME!! Very professional and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Great Location. Close to downtown and Lodo.Very smooth and quick check in.Very clean. New Hotel, but still and very clean one.Great FULL breakfast.And the desk staff named Elizabeth was AWESOME!! Very professional and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r490951597-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>490951597</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family trip to Denver </t>
+  </si>
+  <si>
+    <t>While on our family vacation we stayed at the mainstay. Liz and Cheryl were extremely helpful. We had an accident in lobby and they were johnny on the spot to help. They were happy to share their knowledge of the town to make our trip more eventful. MoreShow less</t>
+  </si>
+  <si>
+    <t>While on our family vacation we stayed at the mainstay. Liz and Cheryl were extremely helpful. We had an accident in lobby and they were johnny on the spot to help. They were happy to share their knowledge of the town to make our trip more eventful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r481601810-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>481601810</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Decent stay for the $89 we paid. Checkin was extremely slow. Room had crumbs on floor. One of my towels had not been replaced. Pillowcase had makeup on it. TV positioned oddly. Somewhat noisy. Breakfast was average. Might stay again if could get same rate. Would not pay more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Decent stay for the $89 we paid. Checkin was extremely slow. Room had crumbs on floor. One of my towels had not been replaced. Pillowcase had makeup on it. TV positioned oddly. Somewhat noisy. Breakfast was average. Might stay again if could get same rate. Would not pay more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r477298066-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>477298066</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Great find near everything</t>
+  </si>
+  <si>
+    <t>Wanted to get away from the daily grind and go someplace we had never been before (except the airport).  Denver seemed like a good option.  The weather was great.  Denver and the surrounding area is scenic and has a really good vibe to it.  Dining/drinking options are plentiful and varied.  The hotel is fairly new and is a "long-term stay" type of place.  It is a studio with a full sized refrigerator, stove top, dishwasher, plates, etc.  The bed was comfortable.  The bathroom has a very large walk in shower.  There is a hot breakfast everyday.  Only downside to the breakfast; it was the same thing 5 days in a row.  No variety.  Hot, fresh, etc, but the same thing daily.  Area is kind of industrial, but only 2 miles to the LoDo district. You definitely need a car.  But having said that, it is located just blocks from freeway entrances; so you can get going places very quickly.  The fitness room is well equipped.  The pool is still under repair...like now water in it.  That would have been nice.  The front desk people are quite pleasant and efficient.  NOTE:  there is only housekeeping once per week.  If you are messy, it might not be for you.  You can get towels, etc at the front desk. I will stay there again should I be in Denver.  Lastly, the Denver Airport is way the heck out on the plain, so it...Wanted to get away from the daily grind and go someplace we had never been before (except the airport).  Denver seemed like a good option.  The weather was great.  Denver and the surrounding area is scenic and has a really good vibe to it.  Dining/drinking options are plentiful and varied.  The hotel is fairly new and is a "long-term stay" type of place.  It is a studio with a full sized refrigerator, stove top, dishwasher, plates, etc.  The bed was comfortable.  The bathroom has a very large walk in shower.  There is a hot breakfast everyday.  Only downside to the breakfast; it was the same thing 5 days in a row.  No variety.  Hot, fresh, etc, but the same thing daily.  Area is kind of industrial, but only 2 miles to the LoDo district. You definitely need a car.  But having said that, it is located just blocks from freeway entrances; so you can get going places very quickly.  The fitness room is well equipped.  The pool is still under repair...like now water in it.  That would have been nice.  The front desk people are quite pleasant and efficient.  NOTE:  there is only housekeeping once per week.  If you are messy, it might not be for you.  You can get towels, etc at the front desk. I will stay there again should I be in Denver.  Lastly, the Denver Airport is way the heck out on the plain, so it is about a 30-45 minute drive to the hotel.  But this is about normal.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Wanted to get away from the daily grind and go someplace we had never been before (except the airport).  Denver seemed like a good option.  The weather was great.  Denver and the surrounding area is scenic and has a really good vibe to it.  Dining/drinking options are plentiful and varied.  The hotel is fairly new and is a "long-term stay" type of place.  It is a studio with a full sized refrigerator, stove top, dishwasher, plates, etc.  The bed was comfortable.  The bathroom has a very large walk in shower.  There is a hot breakfast everyday.  Only downside to the breakfast; it was the same thing 5 days in a row.  No variety.  Hot, fresh, etc, but the same thing daily.  Area is kind of industrial, but only 2 miles to the LoDo district. You definitely need a car.  But having said that, it is located just blocks from freeway entrances; so you can get going places very quickly.  The fitness room is well equipped.  The pool is still under repair...like now water in it.  That would have been nice.  The front desk people are quite pleasant and efficient.  NOTE:  there is only housekeeping once per week.  If you are messy, it might not be for you.  You can get towels, etc at the front desk. I will stay there again should I be in Denver.  Lastly, the Denver Airport is way the heck out on the plain, so it...Wanted to get away from the daily grind and go someplace we had never been before (except the airport).  Denver seemed like a good option.  The weather was great.  Denver and the surrounding area is scenic and has a really good vibe to it.  Dining/drinking options are plentiful and varied.  The hotel is fairly new and is a "long-term stay" type of place.  It is a studio with a full sized refrigerator, stove top, dishwasher, plates, etc.  The bed was comfortable.  The bathroom has a very large walk in shower.  There is a hot breakfast everyday.  Only downside to the breakfast; it was the same thing 5 days in a row.  No variety.  Hot, fresh, etc, but the same thing daily.  Area is kind of industrial, but only 2 miles to the LoDo district. You definitely need a car.  But having said that, it is located just blocks from freeway entrances; so you can get going places very quickly.  The fitness room is well equipped.  The pool is still under repair...like now water in it.  That would have been nice.  The front desk people are quite pleasant and efficient.  NOTE:  there is only housekeeping once per week.  If you are messy, it might not be for you.  You can get towels, etc at the front desk. I will stay there again should I be in Denver.  Lastly, the Denver Airport is way the heck out on the plain, so it is about a 30-45 minute drive to the hotel.  But this is about normal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r474973844-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>474973844</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>They had hash browns!!!</t>
+  </si>
+  <si>
+    <t>Silly as it sounds , it's kinda cool to include hash browns in the free breakfast. The location is nice. The hotel is brand new so it all has that new car smell. They did great with the spacing in the rooms. The rooms aren't large but they have all the necessities. ( a kitchen area and a desk and couch) I wasn't in a suite but it still felt spacey. The tv placement was really odd it kinda faced the door, so I moved it in both rooms. It is NOT located in downtown Denver. It's a few miles away. I assume it's walkable but it looks to be several expressways to cross. I recommend renting a car, especially if you wanna see the mountains. Over all nice place , the staff seemed to be wrapping up a meeting and they all still took time out to speak. Isabel was extremely accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Silly as it sounds , it's kinda cool to include hash browns in the free breakfast. The location is nice. The hotel is brand new so it all has that new car smell. They did great with the spacing in the rooms. The rooms aren't large but they have all the necessities. ( a kitchen area and a desk and couch) I wasn't in a suite but it still felt spacey. The tv placement was really odd it kinda faced the door, so I moved it in both rooms. It is NOT located in downtown Denver. It's a few miles away. I assume it's walkable but it looks to be several expressways to cross. I recommend renting a car, especially if you wanna see the mountains. Over all nice place , the staff seemed to be wrapping up a meeting and they all still took time out to speak. Isabel was extremely accommodating. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +993,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1025,1197 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>186</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_191.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_191.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,129 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r610323786-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12295260</t>
+  </si>
+  <si>
+    <t>610323786</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Mainstay Suites - Denver</t>
+  </si>
+  <si>
+    <t>Staff were helpful. Rooms were nice and clean with comfortable beds and pillows with a small kitchenette however there were no utensils or plates to be found, I assume that they are available on request. Parking was free however the neighborhood probably isn’t the best so we parked our car as close to the lobby as possible. The rooms are compact which meant that there was little available room to lay out a suitcase other than on the bed.  Pros•	Comfortable beds and pillows•	Staff were helpful•	Clean hotel•	KitchenetteCons•	Noisy Air ConditionerMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Staff were helpful. Rooms were nice and clean with comfortable beds and pillows with a small kitchenette however there were no utensils or plates to be found, I assume that they are available on request. Parking was free however the neighborhood probably isn’t the best so we parked our car as close to the lobby as possible. The rooms are compact which meant that there was little available room to lay out a suitcase other than on the bed.  Pros•	Comfortable beds and pillows•	Staff were helpful•	Clean hotel•	KitchenetteCons•	Noisy Air ConditionerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r603015890-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>603015890</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>We were attending a concert and wanted something close to the stadium. Well it’s not all that close and road construction made it difficult to walk anywhere. The hotel was clean. They have no maid service unless you request it. We mainly needed trash picked up... you had to request they. The breakfast was good but get there early if you want any. The dinner in the evening was ok. If you like hot dogs nachos with no meat some pasta of some kind. The pool was decent but no hot tub. The water was a bit on the cold side even though it was a heated pool. There were never any towels in the pool area. Had to wait to get some and the maid lady seemed peeved when asking for them. Our room was very cramped for 2 adults. We barely had room to enjoy the room. Not a bad place but not a return visit.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Mainstay Suites, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We were attending a concert and wanted something close to the stadium. Well it’s not all that close and road construction made it difficult to walk anywhere. The hotel was clean. They have no maid service unless you request it. We mainly needed trash picked up... you had to request they. The breakfast was good but get there early if you want any. The dinner in the evening was ok. If you like hot dogs nachos with no meat some pasta of some kind. The pool was decent but no hot tub. The water was a bit on the cold side even though it was a heated pool. There were never any towels in the pool area. Had to wait to get some and the maid lady seemed peeved when asking for them. Our room was very cramped for 2 adults. We barely had room to enjoy the room. Not a bad place but not a return visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r596844536-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>596844536</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>They don’t have maid service!</t>
+  </si>
+  <si>
+    <t>I just back from three nights at this hotel.  I was in room 307.  Very cramped for two adults as in not even enough floor space for two open suitcases.  We arrived late and tired after a long day of travel and work.  I Initialed the boxes (thought it I was the usual no pets, smoking, etc.) on their check-in form without reading and to my amazement, I agreed that they wouldn’t have to clean our room during our stay. Who could have even thought to ask such a thing of a guest??? So every night upon our arrival back at this “hotel” I had to schlepp our used towels downstairs and collect clean towels, soap, toilet paper.  I am still shaking my head over this.  I want everyone to know that this place really doesn’t have maid service. They have a nice breakfast and even a children’s dinner in the late afternoon (Mac and cheese, hot dogs etc.). I think they need to review their business and decided if they are a hotel or a restaurant.  They obviously can’t do both.  I will never stay here again and want people to know about the lack of maid service.  Really bad place if you need to relax after a long day and are tired!  Watch out for their fine print.  What is next in their fine print?  Agreeing to share your room with a stranger?  Agreeing to no running water?...I just back from three nights at this hotel.  I was in room 307.  Very cramped for two adults as in not even enough floor space for two open suitcases.  We arrived late and tired after a long day of travel and work.  I Initialed the boxes (thought it I was the usual no pets, smoking, etc.) on their check-in form without reading and to my amazement, I agreed that they wouldn’t have to clean our room during our stay. Who could have even thought to ask such a thing of a guest??? So every night upon our arrival back at this “hotel” I had to schlepp our used towels downstairs and collect clean towels, soap, toilet paper.  I am still shaking my head over this.  I want everyone to know that this place really doesn’t have maid service. They have a nice breakfast and even a children’s dinner in the late afternoon (Mac and cheese, hot dogs etc.). I think they need to review their business and decided if they are a hotel or a restaurant.  They obviously can’t do both.  I will never stay here again and want people to know about the lack of maid service.  Really bad place if you need to relax after a long day and are tired!  Watch out for their fine print.  What is next in their fine print?  Agreeing to share your room with a stranger?  Agreeing to no running water?  Crazy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Mainstay Suites, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>I just back from three nights at this hotel.  I was in room 307.  Very cramped for two adults as in not even enough floor space for two open suitcases.  We arrived late and tired after a long day of travel and work.  I Initialed the boxes (thought it I was the usual no pets, smoking, etc.) on their check-in form without reading and to my amazement, I agreed that they wouldn’t have to clean our room during our stay. Who could have even thought to ask such a thing of a guest??? So every night upon our arrival back at this “hotel” I had to schlepp our used towels downstairs and collect clean towels, soap, toilet paper.  I am still shaking my head over this.  I want everyone to know that this place really doesn’t have maid service. They have a nice breakfast and even a children’s dinner in the late afternoon (Mac and cheese, hot dogs etc.). I think they need to review their business and decided if they are a hotel or a restaurant.  They obviously can’t do both.  I will never stay here again and want people to know about the lack of maid service.  Really bad place if you need to relax after a long day and are tired!  Watch out for their fine print.  What is next in their fine print?  Agreeing to share your room with a stranger?  Agreeing to no running water?...I just back from three nights at this hotel.  I was in room 307.  Very cramped for two adults as in not even enough floor space for two open suitcases.  We arrived late and tired after a long day of travel and work.  I Initialed the boxes (thought it I was the usual no pets, smoking, etc.) on their check-in form without reading and to my amazement, I agreed that they wouldn’t have to clean our room during our stay. Who could have even thought to ask such a thing of a guest??? So every night upon our arrival back at this “hotel” I had to schlepp our used towels downstairs and collect clean towels, soap, toilet paper.  I am still shaking my head over this.  I want everyone to know that this place really doesn’t have maid service. They have a nice breakfast and even a children’s dinner in the late afternoon (Mac and cheese, hot dogs etc.). I think they need to review their business and decided if they are a hotel or a restaurant.  They obviously can’t do both.  I will never stay here again and want people to know about the lack of maid service.  Really bad place if you need to relax after a long day and are tired!  Watch out for their fine print.  What is next in their fine print?  Agreeing to share your room with a stranger?  Agreeing to no running water?  Crazy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r587946763-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>587946763</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good option. </t>
+  </si>
+  <si>
+    <t>I would recommend this place for a family on a budget as the downtown hotels can be ridiculously priced. Clean hotel rooms that look updated recently. Decent breakfast and evening snack options. Free parking if you have a car. 10 min drive from down town. The area is shady upon arrival but hotel parking is well lit and safe.One complaint I have is that cleaning should check all the kitchenette utensils. We didn’t use our kitchenette but when I was checking some of the included spoons and forks were not completely clean and still had remnants of food on them (GROSS).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>I would recommend this place for a family on a budget as the downtown hotels can be ridiculously priced. Clean hotel rooms that look updated recently. Decent breakfast and evening snack options. Free parking if you have a car. 10 min drive from down town. The area is shady upon arrival but hotel parking is well lit and safe.One complaint I have is that cleaning should check all the kitchenette utensils. We didn’t use our kitchenette but when I was checking some of the included spoons and forks were not completely clean and still had remnants of food on them (GROSS).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r583158711-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>12295260</t>
-  </si>
-  <si>
     <t>583158711</t>
   </si>
   <si>
@@ -228,12 +339,63 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This hotel has gone down fast. We were here about 7 months ago&amp; it was much better. Where should I start? Rooms: dark, muggy and a suite is not actually a suite at all.Food: Breakfast: awful. Dinner: would skip it.Swimming pool: cleaning staff bring their family daily → crowded &amp; smallStaff( manager Marcus Ross and some lady at the front desk): very unprofessional &amp; impolite. Marcus was french Kissing the lady and I caught them by surprise. She told us We were only allowed One snack for our whole family. She said they have No towels. They threatened to charge us for another night at 1130 Am! When I complained to Marcus about how staff should be polite, he said if we were not out in 5 minutes he would call the police. I am a doctor for God's sake and he is threatening to call the cops on me... for what exactly? His cowardly insecurity and favoritism for the lady he sleeps with at the front desk? Needless to say, they have lost the service of this elite member. For $160 this was one bad night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r566537772-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>566537772</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Great Option</t>
+  </si>
+  <si>
+    <t>We stayed here rather than drive home after a concert.  We were very satisfied with our stay, for the price.  We had a single queen suite.  I love that this is 100% Non-smoking facility. This would be a great place for a vacation stay. The unit has a nice kitchen: full fridge, small dishwasher, two burner stove, sink, coffee maker.  Two plates, cups, glasses, set of silverware, pot and skillet.  There is a tiny sitting area with a couch and desk.  TV can be seen from bed or sitting area.  Bath has roomy shower, hair dryer.There is a little evening snack reception included (we did not partake) and a breakfast with lots of choices, including waffles, oatmeal, eggs and sausage, quite a bit more.This hotel is isolated from everything, so you will need a car or Lyft to get downtown and close to the tourist venues.  There may be a bus that rolls by; if so, you should be able to connect to the light rail pretty easily.I wish that a hot tub were among the amenities. The pool is indoors, but pretty small; good for young kids to splash out some energy, not big enough for lap swimming.  There is no outside lounging/garden area, but the inside lounge is decent, as is the dining area.This hotel is a great value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Supervisor at Mainstay Suites, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here rather than drive home after a concert.  We were very satisfied with our stay, for the price.  We had a single queen suite.  I love that this is 100% Non-smoking facility. This would be a great place for a vacation stay. The unit has a nice kitchen: full fridge, small dishwasher, two burner stove, sink, coffee maker.  Two plates, cups, glasses, set of silverware, pot and skillet.  There is a tiny sitting area with a couch and desk.  TV can be seen from bed or sitting area.  Bath has roomy shower, hair dryer.There is a little evening snack reception included (we did not partake) and a breakfast with lots of choices, including waffles, oatmeal, eggs and sausage, quite a bit more.This hotel is isolated from everything, so you will need a car or Lyft to get downtown and close to the tourist venues.  There may be a bus that rolls by; if so, you should be able to connect to the light rail pretty easily.I wish that a hot tub were among the amenities. The pool is indoors, but pretty small; good for young kids to splash out some energy, not big enough for lap swimming.  There is no outside lounging/garden area, but the inside lounge is decent, as is the dining area.This hotel is a great value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r560035499-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>560035499</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>I have been all over the States and have been to different Hotels but believe me guys this hotel here in Denver is ONE of the best in service and overall experience. Cheryl the Manager is great and very accommodating. All the staff specially Francesca who works the morning shift is very professional in dealing with guest. Wish all the hotels have staff and management like this hotel. They have free breakfast and the choices they have for the guest are great. Coffee and snacks are open day and night. In our future trips I will make sure that we book our hotel in this same hotel simply called Mainstay suites / Comfort Suites. Thank you all for an excellent experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>I have been all over the States and have been to different Hotels but believe me guys this hotel here in Denver is ONE of the best in service and overall experience. Cheryl the Manager is great and very accommodating. All the staff specially Francesca who works the morning shift is very professional in dealing with guest. Wish all the hotels have staff and management like this hotel. They have free breakfast and the choices they have for the guest are great. Coffee and snacks are open day and night. In our future trips I will make sure that we book our hotel in this same hotel simply called Mainstay suites / Comfort Suites. Thank you all for an excellent experience. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r559136596-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -249,15 +411,6 @@
     <t>Clean rooms, wonderful breakfast, a huge thank you to mariah she was friendly and vary helpful. Vary convenient location to the light rails and buses next time i am in town this is were i will be staying!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded February 23, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 23, 2018</t>
-  </si>
-  <si>
     <t>Clean rooms, wonderful breakfast, a huge thank you to mariah she was friendly and vary helpful. Vary convenient location to the light rails and buses next time i am in town this is were i will be staying!More</t>
   </si>
   <si>
@@ -279,9 +432,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Comfort S, Supervisor at Mainstay Suites, responded to this reviewResponded January 5, 2018</t>
   </si>
   <si>
@@ -318,15 +468,60 @@
     <t>Yes the hotel is OK and a new hotel but it's located in the middle of nowhere. You have to pass a few highways just to get somewhere. Don't even bother if u want to see a bit of the city or u have only a few days !!!Everything else was just OK but nothing special. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r533534034-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>533534034</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while visiting Denver for the 2017 beer festival. We were approximately two miles from the Convention Center in downtown. Our room had everything we needed and then some. It had a refrigerator stove dishwasher microwave cabinets and a pull out couch as well as the only thing we really needed a very comfortable bed. Everything was clean and immaculate and we also received a wonderful breakfast in the morning with plenty of choices. Upon checking in we also were asked if we would like a free drink and snack. The staff was really friendly and the price for the value could not be beat. I would have liked to give 5 stars but for whatever reason the arm of the security bar of our room was missing. The seal on the beautiful glass shower door was also loose at the bottom about a foot or so. Other than that I would recommend this hotel to anyone especially those visiting the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while visiting Denver for the 2017 beer festival. We were approximately two miles from the Convention Center in downtown. Our room had everything we needed and then some. It had a refrigerator stove dishwasher microwave cabinets and a pull out couch as well as the only thing we really needed a very comfortable bed. Everything was clean and immaculate and we also received a wonderful breakfast in the morning with plenty of choices. Upon checking in we also were asked if we would like a free drink and snack. The staff was really friendly and the price for the value could not be beat. I would have liked to give 5 stars but for whatever reason the arm of the security bar of our room was missing. The seal on the beautiful glass shower door was also loose at the bottom about a foot or so. Other than that I would recommend this hotel to anyone especially those visiting the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r532735829-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532735829</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Amazing Hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel, clean rooms, amazing amenities, and friendly and helpful staff. My sister and I stayed for five days and were able to stay comfortably. The laundry room was convenient and the breakfast was exactly what I needed. Chelsea and Cheryl were amazing, friendly, and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel, clean rooms, amazing amenities, and friendly and helpful staff. My sister and I stayed for five days and were able to stay comfortably. The laundry room was convenient and the breakfast was exactly what I needed. Chelsea and Cheryl were amazing, friendly, and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r532633800-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
     <t>532633800</t>
   </si>
   <si>
-    <t>10/13/2017</t>
-  </si>
-  <si>
     <t>Nice Hotel Near Downtown Denver.</t>
   </si>
   <si>
@@ -336,12 +531,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded October 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 16, 2017</t>
-  </si>
-  <si>
     <t>Was in Denver for a Aunt’s 70th Birthday. So we all stayed at Mainstay / Comfort Inn Suites. The location was great. The rooms where nice and comfortable. The breakfast in the morning was good and simple. We all had a nice stay and visit.More</t>
   </si>
   <si>
@@ -390,6 +579,48 @@
     <t>I was here for five nights. When I arrived in the room there was an ironing board on top of the bed. The room had not been mopped or vacuumed. I requested another room but was told the hotel was full. It was only after I requested that the room be cleaned that another room was located. This room did not appear to have been vacuumed too and it smelled. Staff was not friendly or helpful. Would not recommend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r528165702-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528165702</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t>This hotel is super nice. Looks like it has been re modeled or new. Hotel staff is really nice and super friendly. I have been at the hotel for about 2 months. Cheryl has gone over and beyond expectation to to accommodate her guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Manager at Mainstay Suites, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is super nice. Looks like it has been re modeled or new. Hotel staff is really nice and super friendly. I have been at the hotel for about 2 months. Cheryl has gone over and beyond expectation to to accommodate her guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r526423153-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>526423153</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Denver visit</t>
+  </si>
+  <si>
+    <t>You can tell the hotel was recently built. Everything feels very clean and brand new. Our room came equipped with full kitchenette. I was very surprised to have a full fridge. We had the opportunity to enjoy the pool. Definitely would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>You can tell the hotel was recently built. Everything feels very clean and brand new. Our room came equipped with full kitchenette. I was very surprised to have a full fridge. We had the opportunity to enjoy the pool. Definitely would stay here again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r524340951-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -426,7 +657,7 @@
     <t>Very happy with this hotel</t>
   </si>
   <si>
-    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness✅ , bed ✅, washroom ✅, breakfast ✅ Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on ☺MoreShow less</t>
+    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness , bed , washroom , breakfast  Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on MoreShow less</t>
   </si>
   <si>
     <t>August 2017</t>
@@ -438,7 +669,7 @@
     <t>Responded August 27, 2017</t>
   </si>
   <si>
-    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness✅ , bed ✅, washroom ✅, breakfast ✅ Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on ☺More</t>
+    <t>Checked-in on Aug. 15th 2017 (for a night), we had a 1 bed wth sofa bed and I am happy with our room. Cleanliness , bed , washroom , breakfast  Two things I don't like, 1st - there's not much water coming out from the shower head and 2nd - the pool area, its too hot. But over all, we are all happy with our stay.Been travelling yearly but this is the first time I wrote a review and will start writing a review from now on More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r513484040-Mainstay_Suites-Denver_Colorado.html</t>
@@ -467,6 +698,57 @@
 Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area,...First off, here is the good about this hotel: it is brand new, like only three months old. That said, I am shocked that a three-month-old hotel is not in better shape. I'm talking staffing, aesthetically, and the physical facilities. I'm trying to put this in perspective, it's like if you had built a brand new home and used all the cheapest materials possible and did absolutely no upgrades and it was slightly unfinished and you just called it good. Staffing in Service- it clearly states that they do not make up the room every night and rather every few days unless you request. However we had young kids in our room and our room got very messy in a hurry. So I requested our room get made up while we were gone that day. This did not happen, so I asked the front desk politely as we were leaving the hotel again that evening they told me that housekeeping was going to be leaving shortly but they would get to it. Because they would be leaving shortly I've verified again before the end of their shift that it would be done. They told me that one of the housekeepers said that I requested that it not be done when she came to our room… No one ever came to my room. Also, my kids went down to swim one evening at the pool which again is an unfinished area, like no paint on the walls or doorways... but anyway, there were no towels I had to ask for more. She told me there wouldn't be any for the rest of the night. I asked if there was anyway she could make an exception and she just said "yes" begrudgingly and about 15 minutes later she brought a couple towels into the pool area. Overall, just a very unfriendly and off putting hotel staff.Physical facilities-so here are a few things that I noticed just in our own room. We could not use the drain plug in the tub to stop the tub so we could have our kids take a bath I had to plug it up with something else. The safety lock on the door was not attached correctly and was falling off. The corner protector on wall in our room fell off multiple times when I went to stick it back on the wall it was apparent that they had put duct tape behind it to hold it in place and there was many spaces where they had to use the hot glue gun to try it and get it to stay. Just doesn't seem professional, quite shoddy actually. One of our rooms stunk and just felt muggy the entire time. I understand that this is not a high-end hotel, but for a brand new hotel I wouldn't expect to feel as if I was in a older hotel under renovation with poor staffing. Finally, breakfast is nothing to write home about and to top everything all off there was no hot tub:(More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r507142136-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>507142136</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>After Vegas it was the second-best hotel during our 3-week-round trip. It was furnished in a modern style and had a kitchenette with fridge / freezer, toaster, stove, microwave and dishwasher. And it was nice to have a shower cubicle in the bathroom. The price includes an excellent full hot breakfast. An indoor pool is also available. In the lobby was a small food store.Downtown is easy to reach by bus. A bus stop is close to the hotel and with one change you reach the Capitol within 30 minutes; a one-day ticket is 5,20 USD per person. We would book at Mainstay again if we would return to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>After Vegas it was the second-best hotel during our 3-week-round trip. It was furnished in a modern style and had a kitchenette with fridge / freezer, toaster, stove, microwave and dishwasher. And it was nice to have a shower cubicle in the bathroom. The price includes an excellent full hot breakfast. An indoor pool is also available. In the lobby was a small food store.Downtown is easy to reach by bus. A bus stop is close to the hotel and with one change you reach the Capitol within 30 minutes; a one-day ticket is 5,20 USD per person. We would book at Mainstay again if we would return to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r506601835-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>506601835</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr </t>
+  </si>
+  <si>
+    <t>Isabella and Cheryl  are extremely accommodating to my every needs and answered all my questions with a smile and very professional manor !!! I would not hesitate to stay there again !! They made my stay extremely comfortable !! I will highly recommend this hotel to my friends and familyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, Guest Relations Manager at Mainstay Suites, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Isabella and Cheryl  are extremely accommodating to my every needs and answered all my questions with a smile and very professional manor !!! I would not hesitate to stay there again !! They made my stay extremely comfortable !! I will highly recommend this hotel to my friends and familyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r504624421-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -482,9 +764,6 @@
     <t>Came out here to Denver to work for a month or so and found this hotel and really liked it. It is always clean all around in the lobby and rooms as well. The staff was awesome as well. Isabel at the front desk did an amazing job helping me with any problem I had and also gave good food recommendations for around town. Also Cheryl at the front desk was very helpful with making sure I was comfortable in the hotel. Would stay here again coming back to Denver and it was affordable.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded July 28, 2017</t>
   </si>
   <si>
@@ -509,9 +788,6 @@
     <t>Great Location. Close to downtown and Lodo.Very smooth and quick check in.Very clean. New Hotel, but still and very clean one.Great FULL breakfast.And the desk staff named Elizabeth was AWESOME!! Very professional and courteous.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 26, 2017</t>
   </si>
   <si>
@@ -539,6 +815,45 @@
     <t>While on our family vacation we stayed at the mainstay. Liz and Cheryl were extremely helpful. We had an accident in lobby and they were johnny on the spot to help. They were happy to share their knowledge of the town to make our trip more eventful. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r490944471-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>490944471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liz with great recommendations </t>
+  </si>
+  <si>
+    <t>We had a nice time here while visiting Denver. Liz at the front desk gave us lots of great dinner recommendations and the place we ended up going was awesome. I wanted a place with a local beer selection and it fit the bill. Rooms were clean and comfortable. Knowledgeable friendly service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>We had a nice time here while visiting Denver. Liz at the front desk gave us lots of great dinner recommendations and the place we ended up going was awesome. I wanted a place with a local beer selection and it fit the bill. Rooms were clean and comfortable. Knowledgeable friendly service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r488260232-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>488260232</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>Stayed for one night on our way to Denver Airport.  All new and clean and close to everything by car.  Had a very pleasant stay.  Large Room, with the kitchenette etc.  Our floor had a washer and dryer and that was VERY helpful.  Only thing missing from our room; face cloths.  Since it was only one night we didn't ask for any.  Other than that, all the amenities were there.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for one night on our way to Denver Airport.  All new and clean and close to everything by car.  Had a very pleasant stay.  Large Room, with the kitchenette etc.  Our floor had a washer and dryer and that was VERY helpful.  Only thing missing from our room; face cloths.  Since it was only one night we didn't ask for any.  Other than that, all the amenities were there.  I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r481601810-Mainstay_Suites-Denver_Colorado.html</t>
   </si>
   <si>
@@ -554,12 +869,6 @@
     <t>Decent stay for the $89 we paid. Checkin was extremely slow. Room had crumbs on floor. One of my towels had not been replaced. Pillowcase had makeup on it. TV positioned oddly. Somewhat noisy. Breakfast was average. Might stay again if could get same rate. Would not pay more.MoreShow less</t>
   </si>
   <si>
-    <t>Comfort S, Front Office Manager at Mainstay Suites, responded to this reviewResponded June 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 25, 2017</t>
-  </si>
-  <si>
     <t>Decent stay for the $89 we paid. Checkin was extremely slow. Room had crumbs on floor. One of my towels had not been replaced. Pillowcase had makeup on it. TV positioned oddly. Somewhat noisy. Breakfast was average. Might stay again if could get same rate. Would not pay more.More</t>
   </si>
   <si>
@@ -600,6 +909,27 @@
   </si>
   <si>
     <t>Silly as it sounds , it's kinda cool to include hash browns in the free breakfast. The location is nice. The hotel is brand new so it all has that new car smell. They did great with the spacing in the rooms. The rooms aren't large but they have all the necessities. ( a kitchen area and a desk and couch) I wasn't in a suite but it still felt spacey. The tv placement was really odd it kinda faced the door, so I moved it in both rooms. It is NOT located in downtown Denver. It's a few miles away. I assume it's walkable but it looks to be several expressways to cross. I recommend renting a car, especially if you wanna see the mountains. Over all nice place , the staff seemed to be wrapping up a meeting and they all still took time out to speak. Isabel was extremely accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12295260-r474693849-Mainstay_Suites-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>474693849</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>New, but disappointing</t>
+  </si>
+  <si>
+    <t>Of course, after I promised my kids a pool, we arrive at the hotel to find the pool is not yet operational. In my opinion, this is false advertising. If you don't have a usable pool (in this case, still under construction) do not market an indoor pool as an amenity. In general, this was a brand new hotel so everything was clean and in working order, but the room was uncomfortably small for an adult and two kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Of course, after I promised my kids a pool, we arrive at the hotel to find the pool is not yet operational. In my opinion, this is false advertising. If you don't have a usable pool (in this case, still under construction) do not market an indoor pool as an amenity. In general, this was a brand new hotel so everything was clean and in working order, but the room was uncomfortably small for an adult and two kids.More</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1464,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1144,10 +1474,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1195,7 +1529,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -1213,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1235,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1244,43 +1578,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1296,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1305,25 +1639,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1335,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1357,7 +1691,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1366,49 +1700,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1424,7 +1752,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1433,25 +1761,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1463,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1485,7 +1813,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1494,43 +1822,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1546,7 +1874,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1555,25 +1883,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1581,7 +1909,7 @@
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1591,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
         <v>115</v>
@@ -1634,13 +1962,13 @@
         <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1652,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -1674,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1683,25 +2011,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1713,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
         <v>131</v>
@@ -1756,20 +2084,26 @@
         <v>136</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -1820,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1835,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -1857,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1866,22 +2200,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -1942,17 +2276,17 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
+      <c r="R15" t="n">
         <v>5</v>
       </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -1961,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
         <v>164</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>165</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -1983,7 +2317,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1992,25 +2326,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
         <v>168</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>169</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>170</v>
       </c>
-      <c r="L16" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>163</v>
-      </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2022,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
         <v>164</v>
       </c>
-      <c r="X16" t="s">
-        <v>165</v>
-      </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -2044,7 +2378,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2053,43 +2387,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
         <v>174</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>175</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>176</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>177</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>114</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
         <v>178</v>
-      </c>
-      <c r="X17" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2105,7 +2445,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2114,47 +2454,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
         <v>182</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>183</v>
       </c>
-      <c r="K18" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" t="s">
-        <v>185</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -2170,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2179,25 +2515,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
         <v>189</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>190</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>191</v>
       </c>
-      <c r="L19" t="s">
-        <v>192</v>
-      </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2209,13 +2545,944 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
         <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>177</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>269</v>
+      </c>
+      <c r="X30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>177</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>269</v>
+      </c>
+      <c r="X31" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>269</v>
+      </c>
+      <c r="X33" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65534</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
